--- a/DymonProject/DymonProject/RegressionTest.xlsx
+++ b/DymonProject/DymonProject/RegressionTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056"/>
   </bookViews>
   <sheets>
     <sheet name="USD Swap WO Future" sheetId="1" r:id="rId1"/>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2421,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/DymonProject/DymonProject/RegressionTest.xlsx
+++ b/DymonProject/DymonProject/RegressionTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD Swap WO Future" sheetId="1" r:id="rId1"/>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2421,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
